--- a/biology/Botanique/Knautia_macedonica/Knautia_macedonica.xlsx
+++ b/biology/Botanique/Knautia_macedonica/Knautia_macedonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knautia macedonica est une espèce de plantes herbacées vivaces de la famille Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille Caprifoliaceae selon la classification phylogénétique APG. Cette espèce est appelée « knautie » de Macédoine ou parfois, petite« scabieuse »
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knautia macedonica est une espèce de plantes herbacées vivaces de la famille Dipsacaceae selon la classification classique de Cronquist (1981), de la famille Caprifoliaceae selon la classification phylogénétique APG. Cette espèce est appelée « knautie » de Macédoine ou parfois, petite« scabieuse »
 Elle est originaire d'Europe de l'est, des Balkans, et plus particulièrement de Macédoine comme l’indique son nom.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Se trouve généralement dans des  milieux ouverts et caillouteux argilo-limoneux et calcaires.  
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se présente sous forme d’une touffe basale de feuilles très découpées duveteuses. Les hampes florales aux fleurs pourpre peuvent s'élever au delà de 80 cm, décrites comme mellifères à floraison de août à septembre, rustique et facile à implanter, les graines germent timidement des 5 °C et savent se resemer naturellement surtout en milieux gravillonnaire et caillouteux.
 </t>
